--- a/src/Input/Envrionment.xlsx
+++ b/src/Input/Envrionment.xlsx
@@ -8,21 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A84CCE-DB36-4B12-9ED8-8EEE13F0DAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E8278-6534-415E-A597-0570192F81A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{BBA347AA-3493-4CE1-9231-1211274D6269}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BBA347AA-3493-4CE1-9231-1211274D6269}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperature" sheetId="1" r:id="rId1"/>
     <sheet name="Wind" sheetId="2" r:id="rId2"/>
     <sheet name="Humidity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Wind!$Y$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Wind!$R$12:$R$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Wind!$P$1:$P$100</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Wind!$P$1:$P$100</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>Month</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,7 +52,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sqrt</t>
+    <t>Alaska</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kansas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">California </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hawaii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,8 +119,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,119 +440,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBE58BC-1035-425E-80C0-930F1CBF6C69}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D2">
+        <v>29.9</v>
+      </c>
+      <c r="E2">
+        <v>49.8</v>
+      </c>
+      <c r="F2">
+        <v>32.9</v>
+      </c>
+      <c r="G2">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>61.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>12.4</v>
+      </c>
+      <c r="D3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E3">
+        <v>52.1</v>
+      </c>
+      <c r="F3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G3">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D4">
+        <v>44.2</v>
+      </c>
+      <c r="E4">
+        <v>55.1</v>
+      </c>
+      <c r="F4">
+        <v>44.2</v>
+      </c>
+      <c r="G4">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>27.9</v>
+      </c>
+      <c r="D5">
+        <v>53.7</v>
+      </c>
+      <c r="E5">
+        <v>58.6</v>
+      </c>
+      <c r="F5">
+        <v>53.7</v>
+      </c>
+      <c r="G5">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>76.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>43.7</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>63.8</v>
+      </c>
+      <c r="F6">
+        <v>62.7</v>
+      </c>
+      <c r="G6">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>52.8</v>
+      </c>
+      <c r="D7">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F7">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G7">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>82.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>56.5</v>
+      </c>
+      <c r="D8">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F8">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="G8">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>82.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>53.6</v>
+      </c>
+      <c r="D9">
+        <v>77.5</v>
+      </c>
+      <c r="E9">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F9">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G9">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>45.2</v>
+      </c>
+      <c r="D10">
+        <v>68.5</v>
+      </c>
+      <c r="E10">
+        <v>70.5</v>
+      </c>
+      <c r="F10">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>30.9</v>
+      </c>
+      <c r="D11">
+        <v>56.2</v>
+      </c>
+      <c r="E11">
+        <v>63.7</v>
+      </c>
+      <c r="F11">
+        <v>55.9</v>
+      </c>
+      <c r="G11">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D12">
+        <v>43.3</v>
+      </c>
+      <c r="E12">
+        <v>55.3</v>
+      </c>
+      <c r="F12">
+        <v>46.5</v>
+      </c>
+      <c r="G12">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>13.4</v>
+      </c>
+      <c r="D13">
+        <v>31.7</v>
+      </c>
+      <c r="E13">
+        <v>49.4</v>
+      </c>
+      <c r="F13">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -543,25 +758,80 @@
         <f>AVERAGE(B2:B13)</f>
         <v>71.791666666666671</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f>AVERAGE(C2:C13)</f>
+        <v>31.916666666666661</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(D2:D13)</f>
+        <v>54.641666666666673</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E2:E13)</f>
+        <v>61.166666666666657</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(F2:F13)</f>
+        <v>54.749999999999993</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(G2:G13)</f>
+        <v>72.958333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <f>STDEV(B2:B13)</f>
         <v>8.5752771843175761</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C15">
+        <f>STDEV(C2:C13)</f>
+        <v>17.637503087214906</v>
+      </c>
+      <c r="D15">
+        <f>STDEV(D2:D13)</f>
+        <v>17.9578525914701</v>
+      </c>
+      <c r="E15">
+        <f>STDEV(E2:E13)</f>
+        <v>8.981023765628791</v>
+      </c>
+      <c r="F15">
+        <f>STDEV(F2:F13)</f>
+        <v>15.540299517413125</v>
+      </c>
+      <c r="G15">
+        <f>STDEV(G2:G13)</f>
+        <v>2.5126799649100962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1</v>
       </c>
@@ -569,17 +839,57 @@
         <f>(B2-32)*5/9</f>
         <v>15.055555555555555</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f>(C2-32)*5/9</f>
+        <v>-12.333333333333334</v>
+      </c>
+      <c r="D22">
+        <f>(D2-32)*5/9</f>
+        <v>-1.1666666666666674</v>
+      </c>
+      <c r="E22">
+        <f>(E2-32)*5/9</f>
+        <v>9.8888888888888875</v>
+      </c>
+      <c r="F22">
+        <f>(F2-32)*5/9</f>
+        <v>0.49999999999999922</v>
+      </c>
+      <c r="G22">
+        <f>(G2-32)*5/9</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B33" si="0">(B3-32)*5/9</f>
+        <f t="shared" ref="B23:C33" si="0">(B3-32)*5/9</f>
         <v>16.611111111111111</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-10.888888888888889</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="1">(D3-32)*5/9</f>
+        <v>1.2222222222222239</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>11.166666666666666</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:G23" si="2">(F3-32)*5/9</f>
+        <v>2.3888888888888875</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>3</v>
       </c>
@@ -587,8 +897,28 @@
         <f t="shared" si="0"/>
         <v>18.833333333333336</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-7.2777777777777777</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="3">(D4-32)*5/9</f>
+        <v>6.7777777777777795</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:G24" si="4">(F4-32)*5/9</f>
+        <v>6.7777777777777795</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>21.277777777777779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>4</v>
       </c>
@@ -596,8 +926,28 @@
         <f t="shared" si="0"/>
         <v>21.277777777777779</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-2.2777777777777786</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:E25" si="5">(D5-32)*5/9</f>
+        <v>12.055555555555557</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>14.777777777777779</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:G25" si="6">(F5-32)*5/9</f>
+        <v>12.055555555555557</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>21.833333333333332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>5</v>
       </c>
@@ -605,8 +955,28 @@
         <f t="shared" si="0"/>
         <v>24.611111111111111</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000018</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:E26" si="7">(D6-32)*5/9</f>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:G26" si="8">(F6-32)*5/9</f>
+        <v>17.055555555555557</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>22.666666666666668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>6</v>
       </c>
@@ -614,8 +984,28 @@
         <f t="shared" si="0"/>
         <v>26.999999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>11.555555555555554</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="9">(D7-32)*5/9</f>
+        <v>23.111111111111107</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>20.500000000000004</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:G27" si="10">(F7-32)*5/9</f>
+        <v>21.999999999999996</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>23.722222222222221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>7</v>
       </c>
@@ -623,8 +1013,28 @@
         <f t="shared" si="0"/>
         <v>27.833333333333329</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>13.611111111111111</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:E28" si="11">(D8-32)*5/9</f>
+        <v>26.055555555555557</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="11"/>
+        <v>23.000000000000004</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:G28" si="12">(F8-32)*5/9</f>
+        <v>24.388888888888893</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="12"/>
+        <v>24.222222222222218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>8</v>
       </c>
@@ -632,8 +1042,28 @@
         <f t="shared" si="0"/>
         <v>27.833333333333329</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:E29" si="13">(D9-32)*5/9</f>
+        <v>25.277777777777779</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="13"/>
+        <v>23.000000000000004</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:G29" si="14">(F9-32)*5/9</f>
+        <v>23.388888888888886</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="14"/>
+        <v>24.499999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>9</v>
       </c>
@@ -641,8 +1071,28 @@
         <f t="shared" si="0"/>
         <v>26.722222222222218</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7.3333333333333348</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:E30" si="15">(D10-32)*5/9</f>
+        <v>20.277777777777779</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="15"/>
+        <v>21.388888888888889</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:G30" si="16">(F10-32)*5/9</f>
+        <v>19.388888888888893</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="16"/>
+        <v>24.444444444444443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>10</v>
       </c>
@@ -650,8 +1100,28 @@
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-0.61111111111111194</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:E31" si="17">(D11-32)*5/9</f>
+        <v>13.444444444444446</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="17"/>
+        <v>17.611111111111111</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:G31" si="18">(F11-32)*5/9</f>
+        <v>13.277777777777779</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="18"/>
+        <v>23.944444444444443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>11</v>
       </c>
@@ -659,8 +1129,28 @@
         <f t="shared" si="0"/>
         <v>19.666666666666671</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-7.833333333333333</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:E32" si="19">(D12-32)*5/9</f>
+        <v>6.2777777777777759</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="19"/>
+        <v>12.944444444444443</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:G32" si="20">(F12-32)*5/9</f>
+        <v>8.0555555555555554</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="20"/>
+        <v>22.944444444444443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>12</v>
       </c>
@@ -668,8 +1158,28 @@
         <f t="shared" si="0"/>
         <v>16.333333333333332</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-10.333333333333334</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:E33" si="21">(D13-32)*5/9</f>
+        <v>-0.16666666666666707</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="21"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:G33" si="22">(F13-32)*5/9</f>
+        <v>2.3888888888888875</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="22"/>
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -677,14 +1187,54 @@
         <f>AVERAGE(B22:B33)</f>
         <v>22.106481481481481</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f>AVERAGE(C22:C33)</f>
+        <v>-4.629629629629628E-2</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(D22:D33)</f>
+        <v>12.578703703703704</v>
+      </c>
+      <c r="E34">
+        <f>AVERAGE(E22:E33)</f>
+        <v>16.203703703703702</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(F22:F33)</f>
+        <v>12.638888888888886</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(G22:G33)</f>
+        <v>22.754629629629633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <f>STDEV(B22:B33)</f>
         <v>4.7640428801764712</v>
+      </c>
+      <c r="C35">
+        <f>STDEV(C22:C33)</f>
+        <v>9.7986128262305012</v>
+      </c>
+      <c r="D35">
+        <f>STDEV(D22:D33)</f>
+        <v>9.9765847730389456</v>
+      </c>
+      <c r="E35">
+        <f>STDEV(E22:E33)</f>
+        <v>4.989457647571518</v>
+      </c>
+      <c r="F35">
+        <f>STDEV(F22:F33)</f>
+        <v>8.6334997318961584</v>
+      </c>
+      <c r="G35">
+        <f>STDEV(G22:G33)</f>
+        <v>1.3959333138389416</v>
       </c>
     </row>
   </sheetData>
@@ -696,119 +1246,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE5C89-E18E-4649-97EC-DAEE5F0EA35A}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>23.3</v>
+      </c>
+      <c r="E2">
+        <v>13.1</v>
+      </c>
+      <c r="F2">
+        <v>54.1</v>
+      </c>
+      <c r="G2">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D3">
+        <v>16.7</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>69.3</v>
+      </c>
+      <c r="G3">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>12.5</v>
+      </c>
+      <c r="F4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G4">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>16.3</v>
+      </c>
+      <c r="D5">
+        <v>20.9</v>
+      </c>
+      <c r="E5">
+        <v>15.3</v>
+      </c>
+      <c r="F5">
+        <v>28.7</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>12.5</v>
+      </c>
+      <c r="D6">
+        <v>15.7</v>
+      </c>
+      <c r="E6">
+        <v>15.8</v>
+      </c>
+      <c r="F6">
+        <v>23.3</v>
+      </c>
+      <c r="G6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>13.2</v>
+      </c>
+      <c r="D7">
+        <v>15.6</v>
+      </c>
+      <c r="E7">
+        <v>13.5</v>
+      </c>
+      <c r="F7">
+        <v>15.8</v>
+      </c>
+      <c r="G7">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>12.9</v>
+      </c>
+      <c r="D8">
+        <v>24.1</v>
+      </c>
+      <c r="E8">
+        <v>11.9</v>
+      </c>
+      <c r="F8">
+        <v>7.3</v>
+      </c>
+      <c r="G8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>13.3</v>
+      </c>
+      <c r="D9">
+        <v>21.6</v>
+      </c>
+      <c r="E9">
+        <v>13.6</v>
+      </c>
+      <c r="F9">
+        <v>11.4</v>
+      </c>
+      <c r="G9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>15.2</v>
+      </c>
+      <c r="D10">
+        <v>15.6</v>
+      </c>
+      <c r="E10">
+        <v>10.6</v>
+      </c>
+      <c r="F10">
+        <v>24.3</v>
+      </c>
+      <c r="G10">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>15.5</v>
+      </c>
+      <c r="D11">
+        <v>15.2</v>
+      </c>
+      <c r="E11">
+        <v>13.7</v>
+      </c>
+      <c r="F11">
+        <v>15.9</v>
+      </c>
+      <c r="G11">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>19.7</v>
+      </c>
+      <c r="D12">
+        <v>21.4</v>
+      </c>
+      <c r="E12">
+        <v>10.9</v>
+      </c>
+      <c r="F12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G12">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>21.7</v>
+      </c>
+      <c r="D13">
+        <v>23.5</v>
+      </c>
+      <c r="E13">
+        <v>17.7</v>
+      </c>
+      <c r="F13">
+        <v>40.5</v>
+      </c>
+      <c r="G13">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -816,25 +1564,80 @@
         <f>AVERAGE(B2:B13)</f>
         <v>14.641666666666666</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f>AVERAGE(C2:C13)</f>
+        <v>16.358333333333331</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(D2:D13)</f>
+        <v>19.3</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E2:E13)</f>
+        <v>13.549999999999999</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(F2:F13)</f>
+        <v>31.424999999999997</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(G2:G13)</f>
+        <v>14.024999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <f>STDEV(B2:B13)</f>
         <v>3.8448213892392444</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C15">
+        <f>STDEV(C2:C13)</f>
+        <v>3.1870357653620767</v>
+      </c>
+      <c r="D15">
+        <f>STDEV(D2:D13)</f>
+        <v>3.49727166387015</v>
+      </c>
+      <c r="E15">
+        <f>STDEV(E2:E13)</f>
+        <v>2.0300022391389438</v>
+      </c>
+      <c r="F15">
+        <f>STDEV(F2:F13)</f>
+        <v>21.406716235798516</v>
+      </c>
+      <c r="G15">
+        <f>STDEV(G2:G13)</f>
+        <v>1.5615406145563913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1</v>
       </c>
@@ -842,17 +1645,57 @@
         <f>B2*1600/3600</f>
         <v>10.71111111111111</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f>C2*1600/3600</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="D22">
+        <f>D2*1600/3600</f>
+        <v>10.355555555555556</v>
+      </c>
+      <c r="E22">
+        <f>E2*1600/3600</f>
+        <v>5.822222222222222</v>
+      </c>
+      <c r="F22">
+        <f>F2*1600/3600</f>
+        <v>24.044444444444444</v>
+      </c>
+      <c r="G22">
+        <f>G2*1600/3600</f>
+        <v>5.6888888888888891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B33" si="0">B3*1600/3600</f>
+        <f t="shared" ref="B23:C33" si="0">B3*1600/3600</f>
         <v>6.4444444444444446</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>7.2888888888888879</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="1">D3*1600/3600</f>
+        <v>7.4222222222222225</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>6.2222222222222223</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:G23" si="2">F3*1600/3600</f>
+        <v>30.8</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>6.3555555555555552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>3</v>
       </c>
@@ -860,8 +1703,28 @@
         <f t="shared" si="0"/>
         <v>6.9777777777777779</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>8.7111111111111121</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="3">D4*1600/3600</f>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:G24" si="4">F4*1600/3600</f>
+        <v>29.822222222222219</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>7.0666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>4</v>
       </c>
@@ -869,8 +1732,28 @@
         <f t="shared" si="0"/>
         <v>8.5777777777777775</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>7.2444444444444445</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:E25" si="5">D5*1600/3600</f>
+        <v>9.2888888888888896</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>6.8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:G25" si="6">F5*1600/3600</f>
+        <v>12.755555555555556</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>5</v>
       </c>
@@ -878,8 +1761,28 @@
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:E26" si="7">D6*1600/3600</f>
+        <v>6.9777777777777779</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>7.0222222222222221</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:G26" si="8">F6*1600/3600</f>
+        <v>10.355555555555556</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>6.0444444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>6</v>
       </c>
@@ -887,8 +1790,28 @@
         <f t="shared" si="0"/>
         <v>6.1333333333333337</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="9">D7*1600/3600</f>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:G27" si="10">F7*1600/3600</f>
+        <v>7.0222222222222221</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>7</v>
       </c>
@@ -896,8 +1819,28 @@
         <f t="shared" si="0"/>
         <v>4.2666666666666666</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:E28" si="11">D8*1600/3600</f>
+        <v>10.71111111111111</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="11"/>
+        <v>5.2888888888888888</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:G28" si="12">F8*1600/3600</f>
+        <v>3.2444444444444445</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="12"/>
+        <v>6.177777777777778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>8</v>
       </c>
@@ -905,8 +1848,28 @@
         <f t="shared" si="0"/>
         <v>5.1555555555555559</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>5.9111111111111114</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:E29" si="13">D9*1600/3600</f>
+        <v>9.6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="13"/>
+        <v>6.0444444444444443</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:G29" si="14">F9*1600/3600</f>
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="14"/>
+        <v>6.5777777777777775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>9</v>
       </c>
@@ -914,8 +1877,28 @@
         <f t="shared" si="0"/>
         <v>5.2888888888888888</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>6.7555555555555555</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:E30" si="15">D10*1600/3600</f>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="15"/>
+        <v>4.7111111111111112</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:G30" si="16">F10*1600/3600</f>
+        <v>10.8</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="16"/>
+        <v>4.9777777777777779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>10</v>
       </c>
@@ -923,8 +1906,28 @@
         <f t="shared" si="0"/>
         <v>6.3555555555555552</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:E31" si="17">D11*1600/3600</f>
+        <v>6.7555555555555555</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="17"/>
+        <v>6.0888888888888886</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:G31" si="18">F11*1600/3600</f>
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="18"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>11</v>
       </c>
@@ -932,8 +1935,28 @@
         <f t="shared" si="0"/>
         <v>5.7777777777777777</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>8.7555555555555564</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:E32" si="19">D12*1600/3600</f>
+        <v>9.5111111111111111</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="19"/>
+        <v>4.8444444444444441</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:G32" si="20">F12*1600/3600</f>
+        <v>8.6222222222222218</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="20"/>
+        <v>6.177777777777778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>12</v>
       </c>
@@ -941,8 +1964,28 @@
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>9.6444444444444439</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:E33" si="21">D13*1600/3600</f>
+        <v>10.444444444444445</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="21"/>
+        <v>7.8666666666666663</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:G33" si="22">F13*1600/3600</f>
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="22"/>
+        <v>6.5333333333333332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -950,14 +1993,54 @@
         <f>AVERAGE(B22:B33)</f>
         <v>6.5074074074074071</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f>AVERAGE(C22:C33)</f>
+        <v>7.2703703703703715</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(D22:D33)</f>
+        <v>8.5777777777777775</v>
+      </c>
+      <c r="E34">
+        <f>AVERAGE(E22:E33)</f>
+        <v>6.0222222222222221</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(F22:F33)</f>
+        <v>13.966666666666669</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(G22:G33)</f>
+        <v>6.2333333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <f>STDEV(B22:B33)</f>
         <v>1.7088095063285511</v>
+      </c>
+      <c r="C35">
+        <f>STDEV(C22:C33)</f>
+        <v>1.416460340160915</v>
+      </c>
+      <c r="D35">
+        <f>STDEV(D22:D33)</f>
+        <v>1.554342961720065</v>
+      </c>
+      <c r="E35">
+        <f>STDEV(E22:E33)</f>
+        <v>0.90222321739508216</v>
+      </c>
+      <c r="F35">
+        <f>STDEV(F22:F33)</f>
+        <v>9.5140961047993393</v>
+      </c>
+      <c r="G35">
+        <f>STDEV(G22:G33)</f>
+        <v>0.69401805091394064</v>
       </c>
     </row>
   </sheetData>
@@ -968,17 +2051,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31DB0B1-6325-4F05-9583-F0BC6BD5EF23}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.77049999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.81459999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.79369999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.77490000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.74639999999999995</v>
       </c>
     </row>
   </sheetData>
